--- a/Bases de datos/Taller Primer corte.xlsx
+++ b/Bases de datos/Taller Primer corte.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia Fonseca\Documents\GitHub\Analisis-Econometrico\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC2EA4B-368B-45FA-8391-08F5311D6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFA7ABF-5F14-4945-A09E-FA2FA42DE1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="18900" windowHeight="11055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Taller" sheetId="3" r:id="rId2"/>
-    <sheet name="Series - Metadata" sheetId="2" r:id="rId3"/>
+    <sheet name="Taller1" sheetId="4" r:id="rId3"/>
+    <sheet name="Series - Metadata" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Series - Metadata'!$C$4:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Series - Metadata'!$C$4:$C$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>CHL</t>
   </si>
@@ -360,6 +361,9 @@
   </si>
   <si>
     <t>Noruega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">España </t>
   </si>
 </sst>
 </file>
@@ -367,7 +371,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -431,7 +435,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -739,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB23"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:BB15"/>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:BB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3734,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C26100-39D0-4EB1-97B9-7BB441CC4E88}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,6 +4158,429 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97036BB9-0267-44C5-9BA0-814D929E0ECF}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1971</v>
+      </c>
+      <c r="B2" s="3">
+        <v>99.992375514344516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1972</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100.70102454807306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1973</v>
+      </c>
+      <c r="B4" s="3">
+        <v>101.78032243214325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1974</v>
+      </c>
+      <c r="B5" s="3">
+        <v>105.98427310291643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1975</v>
+      </c>
+      <c r="B6" s="3">
+        <v>104.94672456475857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1976</v>
+      </c>
+      <c r="B7" s="3">
+        <v>105.51511876617977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1977</v>
+      </c>
+      <c r="B8" s="3">
+        <v>103.02699688132076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1978</v>
+      </c>
+      <c r="B9" s="3">
+        <v>100.13699872937174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1979</v>
+      </c>
+      <c r="B10" s="3">
+        <v>100.6208644293538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1980</v>
+      </c>
+      <c r="B11" s="3">
+        <v>103.30512128388949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1981</v>
+      </c>
+      <c r="B12" s="3">
+        <v>103.05518578201681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1982</v>
+      </c>
+      <c r="B13" s="3">
+        <v>102.78586550106917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1983</v>
+      </c>
+      <c r="B14" s="3">
+        <v>101.73794405238623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1984</v>
+      </c>
+      <c r="B15" s="3">
+        <v>98.95395958929322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1985</v>
+      </c>
+      <c r="B16" s="3">
+        <v>99.174889641725002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1986</v>
+      </c>
+      <c r="B17" s="3">
+        <v>99.10339682548792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1987</v>
+      </c>
+      <c r="B18" s="3">
+        <v>101.04483820717417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1988</v>
+      </c>
+      <c r="B19" s="3">
+        <v>102.30163023830694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1989</v>
+      </c>
+      <c r="B20" s="3">
+        <v>104.40728824188423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1990</v>
+      </c>
+      <c r="B21" s="3">
+        <v>104.42641016704464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1991</v>
+      </c>
+      <c r="B22" s="3">
+        <v>104.22111567798267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1992</v>
+      </c>
+      <c r="B23" s="3">
+        <v>103.84947499041391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B24" s="3">
+        <v>101.71079300445504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B25" s="3">
+        <v>101.08780100248956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B26" s="3">
+        <v>101.12117554083042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100.18049766661284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B28" s="3">
+        <v>99.826679094417528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B29" s="3">
+        <v>100.45755971747845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B30" s="3">
+        <v>101.93344893515945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B31" s="3">
+        <v>102.95561788127208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B32" s="3">
+        <v>102.27391714325249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B33" s="3">
+        <v>101.99118940380387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B34" s="3">
+        <v>102.20587685381157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B35" s="3">
+        <v>103.70021304644786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B36" s="3">
+        <v>104.80375950146492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B37" s="3">
+        <v>105.69452981252671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B38" s="3">
+        <v>105.77812613024726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B39" s="3">
+        <v>104.73547169505228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B40" s="3">
+        <v>100.87148597757647</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B41" s="3">
+        <v>101.02488186451311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="3">
+        <v>99.723246625423144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B43" s="3">
+        <v>97.934824881025008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B44" s="3">
+        <v>96.071144354671162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B45" s="3">
+        <v>96.900474539750689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B46" s="3">
+        <v>96.959604302192858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="3">
+        <v>96.012443438914033</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="3">
+        <v>96.393649187041191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="3">
+        <v>97.278617818194206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B50" s="3">
+        <v>96.990533206081111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="3">
+        <v>98.509135257440064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
